--- a/xlsx/喀斯喀特山脉_intext.xlsx
+++ b/xlsx/喀斯喀特山脉_intext.xlsx
@@ -29,7 +29,7 @@
     <t>北美洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_喀斯喀特山脉</t>
+    <t>政策_政策_美国_喀斯喀特山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B1%B1</t>
   </si>
   <si>
-    <t>貝克山</t>
+    <t>贝克山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E8%A5%BF%E7%88%BE%E5%B3%B0</t>
   </si>
   <si>
-    <t>格拉西爾峰</t>
+    <t>格拉西尔峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1</t>
   </si>
   <si>
-    <t>瑞尼爾山</t>
+    <t>瑞尼尔山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%B5%B7%E4%BC%A6%E6%96%AF%E7%81%AB%E5%B1%B1</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>亞當斯山</t>
+    <t>亚当斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BE%B7%E5%B1%B1</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>火山口湖 (美國)</t>
+    <t>火山口湖 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mount_McLoughlin</t>
